--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,12 @@
   </si>
   <si>
     <t>Fzd3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H2">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I2">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J2">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.126565788508971</v>
+        <v>0.174733</v>
       </c>
       <c r="N2">
-        <v>0.126565788508971</v>
+        <v>0.524199</v>
       </c>
       <c r="O2">
-        <v>0.04974750026494493</v>
+        <v>0.05882867859784573</v>
       </c>
       <c r="P2">
-        <v>0.04974750026494493</v>
+        <v>0.05882867859784573</v>
       </c>
       <c r="Q2">
-        <v>0.02960120082323723</v>
+        <v>0.05728097206</v>
       </c>
       <c r="R2">
-        <v>0.02960120082323723</v>
+        <v>0.51552874854</v>
       </c>
       <c r="S2">
-        <v>0.0003420849591602544</v>
+        <v>0.0005616762744911574</v>
       </c>
       <c r="T2">
-        <v>0.0003420849591602544</v>
+        <v>0.0005616762744911576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H3">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I3">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J3">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.470426446766385</v>
+        <v>0.4828523333333334</v>
       </c>
       <c r="N3">
-        <v>0.470426446766385</v>
+        <v>1.448557</v>
       </c>
       <c r="O3">
-        <v>0.1849041519106016</v>
+        <v>0.1625655412995058</v>
       </c>
       <c r="P3">
-        <v>0.1849041519106016</v>
+        <v>0.1625655412995058</v>
       </c>
       <c r="Q3">
-        <v>0.1100233158370965</v>
+        <v>0.1582886519133334</v>
       </c>
       <c r="R3">
-        <v>0.1100233158370965</v>
+        <v>1.42459786722</v>
       </c>
       <c r="S3">
-        <v>0.001271479550088498</v>
+        <v>0.00155212066247377</v>
       </c>
       <c r="T3">
-        <v>0.001271479550088498</v>
+        <v>0.00155212066247377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H4">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I4">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J4">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.94717154853102</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N4">
-        <v>1.94717154853102</v>
+        <v>0.01852</v>
       </c>
       <c r="O4">
-        <v>0.7653483478244535</v>
+        <v>0.002078422750963094</v>
       </c>
       <c r="P4">
-        <v>0.7653483478244535</v>
+        <v>0.002078422750963094</v>
       </c>
       <c r="Q4">
-        <v>0.4554043926433967</v>
+        <v>0.002023742133333333</v>
       </c>
       <c r="R4">
-        <v>0.4554043926433967</v>
+        <v>0.0182136792</v>
       </c>
       <c r="S4">
-        <v>0.005262860584240979</v>
+        <v>1.98440756345896E-05</v>
       </c>
       <c r="T4">
-        <v>0.005262860584240979</v>
+        <v>1.984407563458961E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.322143973588</v>
+        <v>0.32782</v>
       </c>
       <c r="H5">
-        <v>33.322143973588</v>
+        <v>0.98346</v>
       </c>
       <c r="I5">
-        <v>0.9797215316967104</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J5">
-        <v>0.9797215316967104</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.126565788508971</v>
+        <v>0.02610233333333334</v>
       </c>
       <c r="N5">
-        <v>0.126565788508971</v>
+        <v>0.078307</v>
       </c>
       <c r="O5">
-        <v>0.04974750026494493</v>
+        <v>0.00878806967384811</v>
       </c>
       <c r="P5">
-        <v>0.04974750026494493</v>
+        <v>0.008788069673848112</v>
       </c>
       <c r="Q5">
-        <v>4.217443426826621</v>
+        <v>0.008556866913333334</v>
       </c>
       <c r="R5">
-        <v>4.217443426826621</v>
+        <v>0.07701180222000001</v>
       </c>
       <c r="S5">
-        <v>0.04873869715765436</v>
+        <v>8.39055092180242E-05</v>
       </c>
       <c r="T5">
-        <v>0.04873869715765436</v>
+        <v>8.390550921802422E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.322143973588</v>
+        <v>0.32782</v>
       </c>
       <c r="H6">
-        <v>33.322143973588</v>
+        <v>0.98346</v>
       </c>
       <c r="I6">
-        <v>0.9797215316967104</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J6">
-        <v>0.9797215316967104</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.470426446766385</v>
+        <v>2.28034</v>
       </c>
       <c r="N6">
-        <v>0.470426446766385</v>
+        <v>6.84102</v>
       </c>
       <c r="O6">
-        <v>0.1849041519106016</v>
+        <v>0.7677392876778373</v>
       </c>
       <c r="P6">
-        <v>0.1849041519106016</v>
+        <v>0.7677392876778373</v>
       </c>
       <c r="Q6">
-        <v>15.67561778813291</v>
+        <v>0.7475410588000001</v>
       </c>
       <c r="R6">
-        <v>15.67561778813291</v>
+        <v>6.7278695292</v>
       </c>
       <c r="S6">
-        <v>0.1811545789269358</v>
+        <v>0.007330114378927655</v>
       </c>
       <c r="T6">
-        <v>0.1811545789269358</v>
+        <v>0.007330114378927657</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +838,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H7">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I7">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J7">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.94717154853102</v>
+        <v>0.174733</v>
       </c>
       <c r="N7">
-        <v>1.94717154853102</v>
+        <v>0.524199</v>
       </c>
       <c r="O7">
-        <v>0.7653483478244535</v>
+        <v>0.05882867859784573</v>
       </c>
       <c r="P7">
-        <v>0.7653483478244535</v>
+        <v>0.05882867859784573</v>
       </c>
       <c r="Q7">
-        <v>64.88393068142494</v>
+        <v>5.856730806320333</v>
       </c>
       <c r="R7">
-        <v>64.88393068142494</v>
+        <v>52.710577256883</v>
       </c>
       <c r="S7">
-        <v>0.7498282556121202</v>
+        <v>0.05742896151528049</v>
       </c>
       <c r="T7">
-        <v>0.7498282556121202</v>
+        <v>0.05742896151528051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.455828313381856</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H8">
-        <v>0.455828313381856</v>
+        <v>100.554517</v>
       </c>
       <c r="I8">
-        <v>0.01340204320979991</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J8">
-        <v>0.01340204320979991</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.126565788508971</v>
+        <v>0.4828523333333334</v>
       </c>
       <c r="N8">
-        <v>0.126565788508971</v>
+        <v>1.448557</v>
       </c>
       <c r="O8">
-        <v>0.04974750026494493</v>
+        <v>0.1625655412995058</v>
       </c>
       <c r="P8">
-        <v>0.04974750026494493</v>
+        <v>0.1625655412995058</v>
       </c>
       <c r="Q8">
-        <v>0.05769226990788894</v>
+        <v>16.18432772021878</v>
       </c>
       <c r="R8">
-        <v>0.05769226990788894</v>
+        <v>145.658949481969</v>
       </c>
       <c r="S8">
-        <v>0.0006667181481303245</v>
+        <v>0.1586976018757956</v>
       </c>
       <c r="T8">
-        <v>0.0006667181481303245</v>
+        <v>0.1586976018757957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.455828313381856</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H9">
-        <v>0.455828313381856</v>
+        <v>100.554517</v>
       </c>
       <c r="I9">
-        <v>0.01340204320979991</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J9">
-        <v>0.01340204320979991</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.470426446766385</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N9">
-        <v>0.470426446766385</v>
+        <v>0.01852</v>
       </c>
       <c r="O9">
-        <v>0.1849041519106016</v>
+        <v>0.002078422750963094</v>
       </c>
       <c r="P9">
-        <v>0.1849041519106016</v>
+        <v>0.002078422750963094</v>
       </c>
       <c r="Q9">
-        <v>0.2144336937997407</v>
+        <v>0.2069188505377778</v>
       </c>
       <c r="R9">
-        <v>0.2144336937997407</v>
+        <v>1.86226965484</v>
       </c>
       <c r="S9">
-        <v>0.002478093433577289</v>
+        <v>0.002028970614715012</v>
       </c>
       <c r="T9">
-        <v>0.002478093433577289</v>
+        <v>0.002028970614715013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>33.51817233333333</v>
+      </c>
+      <c r="H10">
+        <v>100.554517</v>
+      </c>
+      <c r="I10">
+        <v>0.9762068923537492</v>
+      </c>
+      <c r="J10">
+        <v>0.9762068923537494</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.02610233333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.078307</v>
+      </c>
+      <c r="O10">
+        <v>0.00878806967384811</v>
+      </c>
+      <c r="P10">
+        <v>0.008788069673848112</v>
+      </c>
+      <c r="Q10">
+        <v>0.8749025069687778</v>
+      </c>
+      <c r="R10">
+        <v>7.874122562719</v>
+      </c>
+      <c r="S10">
+        <v>0.008578974186095489</v>
+      </c>
+      <c r="T10">
+        <v>0.008578974186095493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>33.51817233333333</v>
+      </c>
+      <c r="H11">
+        <v>100.554517</v>
+      </c>
+      <c r="I11">
+        <v>0.9762068923537492</v>
+      </c>
+      <c r="J11">
+        <v>0.9762068923537494</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.28034</v>
+      </c>
+      <c r="N11">
+        <v>6.84102</v>
+      </c>
+      <c r="O11">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="P11">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="Q11">
+        <v>76.43282909859334</v>
+      </c>
+      <c r="R11">
+        <v>687.89546188734</v>
+      </c>
+      <c r="S11">
+        <v>0.7494723841618626</v>
+      </c>
+      <c r="T11">
+        <v>0.7494723841618627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.023649</v>
+      </c>
+      <c r="H12">
+        <v>0.070947</v>
+      </c>
+      <c r="I12">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J12">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.174733</v>
+      </c>
+      <c r="N12">
+        <v>0.524199</v>
+      </c>
+      <c r="O12">
+        <v>0.05882867859784573</v>
+      </c>
+      <c r="P12">
+        <v>0.05882867859784573</v>
+      </c>
+      <c r="Q12">
+        <v>0.004132260717</v>
+      </c>
+      <c r="R12">
+        <v>0.037190346453</v>
+      </c>
+      <c r="S12">
+        <v>4.051943815338107E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.051943815338107E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.023649</v>
+      </c>
+      <c r="H13">
+        <v>0.070947</v>
+      </c>
+      <c r="I13">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J13">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4828523333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.448557</v>
+      </c>
+      <c r="O13">
+        <v>0.1625655412995058</v>
+      </c>
+      <c r="P13">
+        <v>0.1625655412995058</v>
+      </c>
+      <c r="Q13">
+        <v>0.011418974831</v>
+      </c>
+      <c r="R13">
+        <v>0.102770773479</v>
+      </c>
+      <c r="S13">
+        <v>0.0001119702932915691</v>
+      </c>
+      <c r="T13">
+        <v>0.0001119702932915691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.023649</v>
+      </c>
+      <c r="H14">
+        <v>0.070947</v>
+      </c>
+      <c r="I14">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J14">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006173333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.01852</v>
+      </c>
+      <c r="O14">
+        <v>0.002078422750963094</v>
+      </c>
+      <c r="P14">
+        <v>0.002078422750963094</v>
+      </c>
+      <c r="Q14">
+        <v>0.00014599316</v>
+      </c>
+      <c r="R14">
+        <v>0.00131393844</v>
+      </c>
+      <c r="S14">
+        <v>1.431555563060245E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.431555563060245E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.023649</v>
+      </c>
+      <c r="H15">
+        <v>0.070947</v>
+      </c>
+      <c r="I15">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J15">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.02610233333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.078307</v>
+      </c>
+      <c r="O15">
+        <v>0.00878806967384811</v>
+      </c>
+      <c r="P15">
+        <v>0.008788069673848112</v>
+      </c>
+      <c r="Q15">
+        <v>0.000617294081</v>
+      </c>
+      <c r="R15">
+        <v>0.005555646729</v>
+      </c>
+      <c r="S15">
+        <v>6.052960122924331E-06</v>
+      </c>
+      <c r="T15">
+        <v>6.052960122924332E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.455828313381856</v>
-      </c>
-      <c r="H10">
-        <v>0.455828313381856</v>
-      </c>
-      <c r="I10">
-        <v>0.01340204320979991</v>
-      </c>
-      <c r="J10">
-        <v>0.01340204320979991</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.94717154853102</v>
-      </c>
-      <c r="N10">
-        <v>1.94717154853102</v>
-      </c>
-      <c r="O10">
-        <v>0.7653483478244535</v>
-      </c>
-      <c r="P10">
-        <v>0.7653483478244535</v>
-      </c>
-      <c r="Q10">
-        <v>0.8875759228320316</v>
-      </c>
-      <c r="R10">
-        <v>0.8875759228320316</v>
-      </c>
-      <c r="S10">
-        <v>0.0102572316280923</v>
-      </c>
-      <c r="T10">
-        <v>0.0102572316280923</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.023649</v>
+      </c>
+      <c r="H16">
+        <v>0.070947</v>
+      </c>
+      <c r="I16">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J16">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.28034</v>
+      </c>
+      <c r="N16">
+        <v>6.84102</v>
+      </c>
+      <c r="O16">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="P16">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="Q16">
+        <v>0.05392776066</v>
+      </c>
+      <c r="R16">
+        <v>0.48534984594</v>
+      </c>
+      <c r="S16">
+        <v>0.0005287959091796111</v>
+      </c>
+      <c r="T16">
+        <v>0.0005287959091796111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.46547</v>
+      </c>
+      <c r="H17">
+        <v>1.39641</v>
+      </c>
+      <c r="I17">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J17">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.174733</v>
+      </c>
+      <c r="N17">
+        <v>0.524199</v>
+      </c>
+      <c r="O17">
+        <v>0.05882867859784573</v>
+      </c>
+      <c r="P17">
+        <v>0.05882867859784573</v>
+      </c>
+      <c r="Q17">
+        <v>0.08133296951000001</v>
+      </c>
+      <c r="R17">
+        <v>0.73199672559</v>
+      </c>
+      <c r="S17">
+        <v>0.0007975213699206853</v>
+      </c>
+      <c r="T17">
+        <v>0.0007975213699206854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.46547</v>
+      </c>
+      <c r="H18">
+        <v>1.39641</v>
+      </c>
+      <c r="I18">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J18">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4828523333333334</v>
+      </c>
+      <c r="N18">
+        <v>1.448557</v>
+      </c>
+      <c r="O18">
+        <v>0.1625655412995058</v>
+      </c>
+      <c r="P18">
+        <v>0.1625655412995058</v>
+      </c>
+      <c r="Q18">
+        <v>0.2247532755966667</v>
+      </c>
+      <c r="R18">
+        <v>2.02277948037</v>
+      </c>
+      <c r="S18">
+        <v>0.002203848467944804</v>
+      </c>
+      <c r="T18">
+        <v>0.002203848467944804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.46547</v>
+      </c>
+      <c r="H19">
+        <v>1.39641</v>
+      </c>
+      <c r="I19">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J19">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.006173333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.01852</v>
+      </c>
+      <c r="O19">
+        <v>0.002078422750963094</v>
+      </c>
+      <c r="P19">
+        <v>0.002078422750963094</v>
+      </c>
+      <c r="Q19">
+        <v>0.002873501466666666</v>
+      </c>
+      <c r="R19">
+        <v>0.02586151319999999</v>
+      </c>
+      <c r="S19">
+        <v>2.81765050504314E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.817650505043141E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.46547</v>
+      </c>
+      <c r="H20">
+        <v>1.39641</v>
+      </c>
+      <c r="I20">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J20">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.02610233333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.078307</v>
+      </c>
+      <c r="O20">
+        <v>0.00878806967384811</v>
+      </c>
+      <c r="P20">
+        <v>0.008788069673848112</v>
+      </c>
+      <c r="Q20">
+        <v>0.01214985309666667</v>
+      </c>
+      <c r="R20">
+        <v>0.10934867787</v>
+      </c>
+      <c r="S20">
+        <v>0.0001191370184116702</v>
+      </c>
+      <c r="T20">
+        <v>0.0001191370184116702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.46547</v>
+      </c>
+      <c r="H21">
+        <v>1.39641</v>
+      </c>
+      <c r="I21">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J21">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.28034</v>
+      </c>
+      <c r="N21">
+        <v>6.84102</v>
+      </c>
+      <c r="O21">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="P21">
+        <v>0.7677392876778373</v>
+      </c>
+      <c r="Q21">
+        <v>1.0614298598</v>
+      </c>
+      <c r="R21">
+        <v>9.552868738200001</v>
+      </c>
+      <c r="S21">
+        <v>0.01040799322786729</v>
+      </c>
+      <c r="T21">
+        <v>0.01040799322786729</v>
       </c>
     </row>
   </sheetData>
